--- a/data/trans_dic/P16A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03869660348083991</v>
+        <v>0.04071981762968523</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04788692314458742</v>
+        <v>0.04621990120932062</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03781439544095285</v>
+        <v>0.03753995383519574</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08282231495434605</v>
+        <v>0.08137398021203322</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07195806568050868</v>
+        <v>0.07310429097274171</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1334579482334832</v>
+        <v>0.13246947707715</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1474479360329017</v>
+        <v>0.1479873833424686</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1569154496847336</v>
+        <v>0.1570619424439824</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06072968523512796</v>
+        <v>0.06101758917910114</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09577845255106465</v>
+        <v>0.09284420387687319</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09820568567052741</v>
+        <v>0.09917388286013998</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1257193198637316</v>
+        <v>0.1259909232320751</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07089585090729025</v>
+        <v>0.07292483352994049</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08707078991670054</v>
+        <v>0.0842713497927982</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07421948965740545</v>
+        <v>0.07126698961086529</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1275644243808041</v>
+        <v>0.1280314111207908</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1146930709312015</v>
+        <v>0.1160679713127196</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1876062166446948</v>
+        <v>0.1870823530404062</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2060765727063011</v>
+        <v>0.2104554750126757</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1984379022192488</v>
+        <v>0.1999845258529495</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08825563340852233</v>
+        <v>0.08769864903750986</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1306661309347774</v>
+        <v>0.126843584211087</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1356379372441805</v>
+        <v>0.1335329664089233</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1556141432681922</v>
+        <v>0.1576390406175536</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03518966969146987</v>
+        <v>0.03602977500213501</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05244448286218951</v>
+        <v>0.05375507297474228</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04411561216831125</v>
+        <v>0.04406267431674249</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05336428376927711</v>
+        <v>0.05267606383546058</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09461546954868695</v>
+        <v>0.09423023440576571</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.133135568000718</v>
+        <v>0.1327978646056104</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1154370573651227</v>
+        <v>0.1140517559539163</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1567511301616397</v>
+        <v>0.1597553907569692</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0694683783014006</v>
+        <v>0.07020022536057163</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09783234481082491</v>
+        <v>0.09821591722405813</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.08396193812348345</v>
+        <v>0.08304377390822018</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1103053907916508</v>
+        <v>0.1084953319319289</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06433818710974577</v>
+        <v>0.0642174912202602</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08662953339545124</v>
+        <v>0.08748614636937047</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07333344885069058</v>
+        <v>0.07267510292676661</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08264005994086615</v>
+        <v>0.08334954250471142</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1355433704864944</v>
+        <v>0.1347416189501013</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1796466426662008</v>
+        <v>0.1806935813469028</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1592082930810467</v>
+        <v>0.161095842353802</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1954518251734218</v>
+        <v>0.1975376373965544</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09467930311499931</v>
+        <v>0.09554503687400365</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1275913987614116</v>
+        <v>0.1261919934262653</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1103132021203796</v>
+        <v>0.1101105979166351</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.13578534307269</v>
+        <v>0.1353783827140357</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.06215328086214726</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.08568292337580347</v>
+        <v>0.08568292337580348</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1218784648239113</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02726409792838866</v>
+        <v>0.02853730184470856</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03786109719640058</v>
+        <v>0.036663729734699</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04652412072317987</v>
+        <v>0.04636591920731734</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06739049517138913</v>
+        <v>0.06828469253293262</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09941911714319847</v>
+        <v>0.09915305009096076</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1231396464999205</v>
+        <v>0.1221990326963681</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1169581339894271</v>
+        <v>0.1146308063912423</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1331722411723146</v>
+        <v>0.1327484709919087</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06919088109936501</v>
+        <v>0.06843209141267033</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08613549093544665</v>
+        <v>0.08741738696467034</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08628403830916268</v>
+        <v>0.08480535632101559</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1068051925989838</v>
+        <v>0.1053405097360722</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06004646191174694</v>
+        <v>0.06176565430853398</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07676841190921203</v>
+        <v>0.07760464836738158</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08150452750901928</v>
+        <v>0.08027812000072522</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1070200289507974</v>
+        <v>0.1066017247847798</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1468021636122606</v>
+        <v>0.1463427142492613</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1774022509264586</v>
+        <v>0.1796285822108537</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1675510262666973</v>
+        <v>0.1668970700772665</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1777166241231237</v>
+        <v>0.1759495905353494</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09902969253845126</v>
+        <v>0.09689714335552478</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1197994893536209</v>
+        <v>0.119981855294668</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1176913112504209</v>
+        <v>0.1156951363861747</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1369681825026064</v>
+        <v>0.1368369584649399</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03820042567489725</v>
+        <v>0.0380524807487068</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05889146706386162</v>
+        <v>0.05891127565316893</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06027347963114886</v>
+        <v>0.05847148162286746</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08142129226427997</v>
+        <v>0.08020133514238517</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0958500076368743</v>
+        <v>0.09555744538825883</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1383971696074078</v>
+        <v>0.1368149534949074</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.14017706680999</v>
+        <v>0.1381645518033965</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1646117353243549</v>
+        <v>0.1667121757197488</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0728285193906273</v>
+        <v>0.07285215682779392</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1048659125274041</v>
+        <v>0.1059101409771869</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1062581652916896</v>
+        <v>0.1043172556920758</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1306563533418214</v>
+        <v>0.1309547497668128</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06662902575174247</v>
+        <v>0.06546870666114306</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09597875140251635</v>
+        <v>0.09691200165071412</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09452218188151444</v>
+        <v>0.09299364533269103</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1169588930133864</v>
+        <v>0.114016943965531</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1342594870447763</v>
+        <v>0.1364624899493742</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1832806033819149</v>
+        <v>0.1835161337214759</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.190652909568698</v>
+        <v>0.1864388500082389</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2047310322531386</v>
+        <v>0.2063441454644316</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09741078217162499</v>
+        <v>0.09681235660076609</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.134548967420666</v>
+        <v>0.1361554400819099</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1378044532137353</v>
+        <v>0.1365334674989504</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.15982841632032</v>
+        <v>0.1577906437284211</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.1518761437633046</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1746000586174658</v>
+        <v>0.1746000586174659</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.08080730570318109</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0420732608442741</v>
+        <v>0.0426970094682789</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05813063991163545</v>
+        <v>0.05746668967104272</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05452705418241923</v>
+        <v>0.05487889444617853</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07680896252088661</v>
+        <v>0.07720743472747255</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1014400154049544</v>
+        <v>0.1013560041919524</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1434550107223809</v>
+        <v>0.1432160928701153</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1397812206681608</v>
+        <v>0.13968864298809</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1642613995045958</v>
+        <v>0.1656248994785302</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07444903985757284</v>
+        <v>0.07355411007078812</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1045563095667852</v>
+        <v>0.1044980968154723</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1005581341675076</v>
+        <v>0.1006724758896181</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1252344288296142</v>
+        <v>0.1247829083231158</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05711691939304123</v>
+        <v>0.05676361908476334</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07669556211991747</v>
+        <v>0.07529091260980979</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07229249793615865</v>
+        <v>0.0714587886004555</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09592231400750947</v>
+        <v>0.09628282270148825</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1229058573576801</v>
+        <v>0.1232384754402429</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1693078760066396</v>
+        <v>0.1684638530021988</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1649289782620119</v>
+        <v>0.165426064505011</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1847286610536542</v>
+        <v>0.1858114030307083</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08838235495880821</v>
+        <v>0.08770765617422931</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1196072179792998</v>
+        <v>0.1196998952315047</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1160952366650049</v>
+        <v>0.1159624068668762</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1389990655670844</v>
+        <v>0.1388571139817483</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>26856</v>
+        <v>28260</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>33687</v>
+        <v>32514</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>25517</v>
+        <v>25332</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>57206</v>
+        <v>56206</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>49532</v>
+        <v>50321</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>93027</v>
+        <v>92338</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>99209</v>
+        <v>99572</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>115204</v>
+        <v>115312</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>83950</v>
+        <v>84348</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>134140</v>
+        <v>130030</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>132346</v>
+        <v>133651</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>179136</v>
+        <v>179523</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>49203</v>
+        <v>50611</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>61252</v>
+        <v>59282</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>50083</v>
+        <v>48091</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>88110</v>
+        <v>88433</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>78949</v>
+        <v>79896</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>130771</v>
+        <v>130406</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>138656</v>
+        <v>141603</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>145689</v>
+        <v>146825</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>122001</v>
+        <v>121231</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>183000</v>
+        <v>177647</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>182791</v>
+        <v>179954</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>221733</v>
+        <v>224618</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>33845</v>
+        <v>34653</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>53386</v>
+        <v>54720</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>45105</v>
+        <v>45051</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>55975</v>
+        <v>55253</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>91625</v>
+        <v>91252</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>137420</v>
+        <v>137072</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>120391</v>
+        <v>118946</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>167955</v>
+        <v>171174</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>134087</v>
+        <v>135500</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>200569</v>
+        <v>201355</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>173410</v>
+        <v>171514</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>233891</v>
+        <v>230053</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>61880</v>
+        <v>61764</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>88184</v>
+        <v>89056</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>74978</v>
+        <v>74305</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>86683</v>
+        <v>87427</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>131259</v>
+        <v>130483</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>185428</v>
+        <v>186509</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>166040</v>
+        <v>168009</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>209422</v>
+        <v>211656</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>182749</v>
+        <v>184420</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>261579</v>
+        <v>258710</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>227835</v>
+        <v>227416</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>287918</v>
+        <v>287055</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>18499</v>
+        <v>19363</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>28684</v>
+        <v>27777</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>35337</v>
+        <v>35217</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>54119</v>
+        <v>54838</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>67987</v>
+        <v>67805</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>95701</v>
+        <v>94970</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>91813</v>
+        <v>89986</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>108170</v>
+        <v>107826</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>94262</v>
+        <v>93228</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>132200</v>
+        <v>134168</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>133271</v>
+        <v>130987</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>172526</v>
+        <v>170160</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>40742</v>
+        <v>41909</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>58162</v>
+        <v>58795</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>61907</v>
+        <v>60975</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>85945</v>
+        <v>85609</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>100389</v>
+        <v>100075</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>137872</v>
+        <v>139603</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>131529</v>
+        <v>131016</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>144352</v>
+        <v>142917</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>134913</v>
+        <v>132008</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>183868</v>
+        <v>184148</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>181782</v>
+        <v>178698</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>221249</v>
+        <v>221037</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>35993</v>
+        <v>35854</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>55814</v>
+        <v>55833</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>56510</v>
+        <v>54821</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>80612</v>
+        <v>79404</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>99551</v>
+        <v>99247</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>145580</v>
+        <v>143916</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>146314</v>
+        <v>144213</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>184207</v>
+        <v>186558</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>144261</v>
+        <v>144308</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>209694</v>
+        <v>211782</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>210534</v>
+        <v>206689</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>275568</v>
+        <v>276197</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>62779</v>
+        <v>61686</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>90963</v>
+        <v>91847</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>88621</v>
+        <v>87188</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>115797</v>
+        <v>112884</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>139444</v>
+        <v>141732</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>192793</v>
+        <v>193041</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>199000</v>
+        <v>194601</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>229102</v>
+        <v>230908</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>192955</v>
+        <v>191769</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>269049</v>
+        <v>272262</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>273038</v>
+        <v>270520</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>337095</v>
+        <v>332797</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>137855</v>
+        <v>139899</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>199201</v>
+        <v>196926</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>185084</v>
+        <v>186278</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>271348</v>
+        <v>272755</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>342786</v>
+        <v>342502</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>510457</v>
+        <v>509607</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>495460</v>
+        <v>495132</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>613837</v>
+        <v>618933</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>495514</v>
+        <v>489557</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>730335</v>
+        <v>729928</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>697762</v>
+        <v>698555</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>910419</v>
+        <v>907136</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>187146</v>
+        <v>185988</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>262819</v>
+        <v>258005</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>245386</v>
+        <v>242556</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>338871</v>
+        <v>340144</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>415323</v>
+        <v>416447</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>602450</v>
+        <v>599446</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>584598</v>
+        <v>586360</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>690323</v>
+        <v>694369</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>588250</v>
+        <v>583759</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>835467</v>
+        <v>836114</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>805572</v>
+        <v>804651</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1010484</v>
+        <v>1009452</v>
       </c>
     </row>
     <row r="24">
